--- a/config_5.18/act_ty_phb_config.xlsx
+++ b/config_5.18/act_ty_phb_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19035" windowHeight="10050"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -136,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -156,46 +156,99 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,92 +262,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,12 +321,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -339,163 +387,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,6 +512,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -532,9 +565,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,32 +598,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -594,24 +612,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -620,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,133 +632,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1152,8 +1152,8 @@
   <sheetPr/>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1227,7 +1227,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="8">
-        <v>1621267200</v>
+        <v>1621296000</v>
       </c>
       <c r="G2" s="8">
         <v>1621871999</v>

--- a/config_5.18/act_ty_phb_config.xlsx
+++ b/config_5.18/act_ty_phb_config.xlsx
@@ -136,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -156,6 +156,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -164,22 +172,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,108 +285,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,187 +321,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,6 +512,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -534,7 +573,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,41 +583,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,17 +602,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,133 +632,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1152,8 +1152,8 @@
   <sheetPr/>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="L2" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:12">

--- a/config_5.18/act_ty_phb_config.xlsx
+++ b/config_5.18/act_ty_phb_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="19035" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>line|</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>condiy_key|权限（非显示权限，此权限为渠道或者平台权限）</t>
+  </si>
+  <si>
+    <t>type_info</t>
   </si>
   <si>
     <t>prop_grade</t>
@@ -133,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -153,6 +156,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -160,6 +171,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -167,22 +201,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -197,55 +217,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,6 +246,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -273,6 +277,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -281,17 +293,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,43 +321,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,139 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,39 +512,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -556,21 +526,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,6 +564,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -617,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,137 +632,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,9 +785,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1152,8 +1152,8 @@
   <sheetPr/>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1172,7 +1172,7 @@
     <col min="12" max="12" width="58.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1200,14 +1200,17 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:12">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1218,10 +1221,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="8">
         <v>1621267200</v>
@@ -1230,49 +1233,52 @@
         <v>1621871999</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="13" t="s">
         <v>16</v>
       </c>
+      <c r="K2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:12">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" s="5" customFormat="1" spans="1:12">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="9" spans="10:10">
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1301,19 +1307,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="14.1" customHeight="1" spans="1:3">
@@ -1324,7 +1330,7 @@
         <v>40000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1335,7 +1341,7 @@
         <v>15000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1346,7 +1352,7 @@
         <v>5000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1357,7 +1363,7 @@
         <v>2200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1368,7 +1374,7 @@
         <v>1200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1379,7 +1385,7 @@
         <v>600</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1390,7 +1396,7 @@
         <v>300</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1401,13 +1407,13 @@
         <v>60000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1">
         <v>100000</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1418,13 +1424,13 @@
         <v>15000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1">
         <v>60000</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1435,13 +1441,13 @@
         <v>5000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1">
         <v>30000</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1452,13 +1458,13 @@
         <v>800</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1">
         <v>15000</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1469,13 +1475,13 @@
         <v>800</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1">
         <v>10000</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1486,13 +1492,13 @@
         <v>400</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1">
         <v>6000</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1503,13 +1509,13 @@
         <v>200</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1">
         <v>3000</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:5">
